--- a/data/草本致远1号.xlsx
+++ b/data/草本致远1号.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>日期</t>
   </si>
@@ -215,6 +215,9 @@
     <t>2021-12-17</t>
   </si>
   <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
     <t>2021-12-24</t>
   </si>
   <si>
@@ -371,6 +374,9 @@
     <t>2022-12-16</t>
   </si>
   <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
     <t>2022-12-23</t>
   </si>
   <si>
@@ -527,6 +533,9 @@
     <t>2023-12-15</t>
   </si>
   <si>
+    <t>2023-12-20</t>
+  </si>
+  <si>
     <t>2023-12-22</t>
   </si>
   <si>
@@ -672,6 +681,9 @@
   </si>
   <si>
     <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
   </si>
   <si>
     <t>2024-11-29</t>
@@ -867,12 +879,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1206,7 +1224,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,16 +1248,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1248,89 +1266,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1353,6 +1371,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1712,27 +1736,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O215"/>
+  <dimension ref="A1:N219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D190" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="7.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.3833333333333" customWidth="1"/>
-    <col min="6" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.3833333333333" customWidth="1"/>
+    <col min="5" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1748,14 +1771,13 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
-      <c r="O1"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1769,9 +1791,8 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1785,9 +1806,8 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1801,9 +1821,8 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1817,9 +1836,8 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1833,9 +1851,8 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -1849,9 +1866,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1865,9 +1881,8 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1881,9 +1896,8 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1897,9 +1911,8 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1913,9 +1926,8 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1929,9 +1941,8 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -1945,9 +1956,8 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -1961,9 +1971,8 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1977,9 +1986,8 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
@@ -1993,9 +2001,8 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
@@ -2009,9 +2016,8 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
@@ -2025,9 +2031,8 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
@@ -2041,9 +2046,8 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
@@ -2057,9 +2061,8 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:7">
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
@@ -2073,9 +2076,8 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -2089,9 +2091,8 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
@@ -2105,9 +2106,8 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
@@ -2121,9 +2121,8 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:7">
       <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
@@ -2137,9 +2136,8 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:7">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
@@ -2153,9 +2151,8 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:7">
       <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
@@ -2169,9 +2166,8 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:7">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
@@ -2185,9 +2181,8 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:7">
       <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
@@ -2201,9 +2196,8 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:7">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
@@ -2217,9 +2211,8 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:7">
       <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
@@ -2233,9 +2226,8 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:7">
       <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
@@ -2249,9 +2241,8 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:7">
       <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
@@ -2265,9 +2256,8 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="34" ht="18" customHeight="1" spans="1:7">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
@@ -2281,9 +2271,8 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="35" ht="18" customHeight="1" spans="1:7">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
@@ -2297,9 +2286,8 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="36" ht="18" customHeight="1" spans="1:7">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -2313,9 +2301,8 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="37" ht="18" customHeight="1" spans="1:7">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -2329,9 +2316,8 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="38" ht="18" customHeight="1" spans="1:7">
       <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
@@ -2345,9 +2331,8 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="39" ht="18" customHeight="1" spans="1:7">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
@@ -2361,9 +2346,8 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="40" ht="18" customHeight="1" spans="1:7">
       <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
@@ -2377,9 +2361,8 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="41" ht="18" customHeight="1" spans="1:7">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -2393,9 +2376,8 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="42" ht="18" customHeight="1" spans="1:7">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -2409,9 +2391,8 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="43" ht="18" customHeight="1" spans="1:7">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -2425,9 +2406,8 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="44" ht="18" customHeight="1" spans="1:7">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -2441,9 +2421,8 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="45" ht="18" customHeight="1" spans="1:7">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -2457,9 +2436,8 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="46" ht="18" customHeight="1" spans="1:7">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -2473,9 +2451,8 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="47" ht="18" customHeight="1" spans="1:7">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -2489,9 +2466,8 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="48" ht="18" customHeight="1" spans="1:7">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -2505,9 +2481,8 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="49" ht="18" customHeight="1" spans="1:7">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -2521,9 +2496,8 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="50" ht="18" customHeight="1" spans="1:7">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -2537,9 +2511,8 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="51" ht="18" customHeight="1" spans="1:7">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -2553,9 +2526,8 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="52" ht="18" customHeight="1" spans="1:7">
       <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
@@ -2569,9 +2541,8 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="53" ht="18" customHeight="1" spans="1:7">
       <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
@@ -2585,9 +2556,8 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="54" ht="18" customHeight="1" spans="1:7">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -2601,9 +2571,8 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="55" ht="18" customHeight="1" spans="1:7">
       <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
@@ -2617,9 +2586,8 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="56" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="56" ht="18" customHeight="1" spans="1:7">
       <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
@@ -2633,9 +2601,8 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="57" ht="18" customHeight="1" spans="1:7">
       <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
@@ -2649,9 +2616,8 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="58" ht="18" customHeight="1" spans="1:7">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
@@ -2665,9 +2631,8 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="59" ht="18" customHeight="1" spans="1:7">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2646,8 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="60" ht="18" customHeight="1" spans="1:7">
       <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
@@ -2697,105 +2661,98 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" ht="18" customHeight="1" spans="1:8">
-      <c r="A61" s="7" t="s">
+    </row>
+    <row r="61" ht="18" customHeight="1" spans="1:7">
+      <c r="A61" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="8">
-        <v>0.993</v>
-      </c>
-      <c r="C61" s="8">
-        <v>1.149</v>
+      <c r="B61" s="11">
+        <v>1.012</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1.168</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="62" ht="18" customHeight="1" spans="1:7">
       <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="8">
-        <v>0.986</v>
+        <v>0.993</v>
       </c>
       <c r="C62" s="8">
-        <v>1.142</v>
+        <v>1.149</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="63" ht="18" customHeight="1" spans="1:7">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="8">
-        <v>0.965</v>
+        <v>0.986</v>
       </c>
       <c r="C63" s="8">
-        <v>1.121</v>
+        <v>1.142</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="64" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="64" ht="18" customHeight="1" spans="1:7">
       <c r="A64" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="8">
-        <v>0.97</v>
+        <v>0.965</v>
       </c>
       <c r="C64" s="8">
-        <v>1.126</v>
+        <v>1.121</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-    </row>
-    <row r="65" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="65" ht="18" customHeight="1" spans="1:7">
       <c r="A65" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="8">
-        <v>0.987</v>
+        <v>0.97</v>
       </c>
       <c r="C65" s="8">
-        <v>1.143</v>
+        <v>1.126</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="66" ht="18" customHeight="1" spans="1:7">
       <c r="A66" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="8">
-        <v>1.023</v>
+        <v>0.987</v>
       </c>
       <c r="C66" s="8">
-        <v>1.179</v>
+        <v>1.143</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="67" ht="18" customHeight="1" spans="1:7">
       <c r="A67" s="7" t="s">
         <v>68</v>
       </c>
@@ -2809,1177 +2766,1103 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="68" ht="18" customHeight="1" spans="1:7">
       <c r="A68" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="8">
-        <v>1.277</v>
+        <v>1.023</v>
       </c>
       <c r="C68" s="8">
-        <v>1.433</v>
+        <v>1.179</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="69" ht="18" customHeight="1" spans="1:7">
       <c r="A69" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="8">
-        <v>1.294</v>
+        <v>1.277</v>
       </c>
       <c r="C69" s="8">
-        <v>1.45</v>
+        <v>1.433</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="70" ht="18" customHeight="1" spans="1:7">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="8">
-        <v>1.397</v>
+        <v>1.294</v>
       </c>
       <c r="C70" s="8">
-        <v>1.553</v>
+        <v>1.45</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="71" ht="18" customHeight="1" spans="1:7">
       <c r="A71" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="8">
-        <v>1.39</v>
+        <v>1.397</v>
       </c>
       <c r="C71" s="8">
-        <v>1.546</v>
+        <v>1.553</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="72" ht="18" customHeight="1" spans="1:7">
       <c r="A72" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="8">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="C72" s="8">
-        <v>1.686</v>
+        <v>1.546</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="73" ht="18" customHeight="1" spans="1:7">
       <c r="A73" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="8">
-        <v>1.563</v>
+        <v>1.53</v>
       </c>
       <c r="C73" s="8">
-        <v>1.719</v>
+        <v>1.686</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="74" ht="18" customHeight="1" spans="1:7">
       <c r="A74" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="8">
-        <v>1.699</v>
+        <v>1.563</v>
       </c>
       <c r="C74" s="8">
-        <v>1.855</v>
+        <v>1.719</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="75" ht="18" customHeight="1" spans="1:7">
       <c r="A75" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="8">
-        <v>1.638</v>
+        <v>1.699</v>
       </c>
       <c r="C75" s="8">
-        <v>1.794</v>
+        <v>1.855</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="76" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="76" ht="18" customHeight="1" spans="1:7">
       <c r="A76" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="8">
-        <v>1.623</v>
+        <v>1.638</v>
       </c>
       <c r="C76" s="8">
-        <v>1.779</v>
+        <v>1.794</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="77" ht="18" customHeight="1" spans="1:7">
       <c r="A77" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="8">
-        <v>1.606</v>
+        <v>1.623</v>
       </c>
       <c r="C77" s="8">
-        <v>1.762</v>
+        <v>1.779</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="78" ht="18" customHeight="1" spans="1:7">
       <c r="A78" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B78" s="8">
-        <v>1.746</v>
+        <v>1.606</v>
       </c>
       <c r="C78" s="8">
-        <v>1.902</v>
+        <v>1.762</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-    </row>
-    <row r="79" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="79" ht="18" customHeight="1" spans="1:7">
       <c r="A79" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="8">
-        <v>1.823</v>
+        <v>1.746</v>
       </c>
       <c r="C79" s="8">
-        <v>1.979</v>
+        <v>1.902</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-    </row>
-    <row r="80" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="80" ht="18" customHeight="1" spans="1:7">
       <c r="A80" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="8">
-        <v>1.821</v>
+        <v>1.823</v>
       </c>
       <c r="C80" s="8">
-        <v>1.977</v>
+        <v>1.979</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-    </row>
-    <row r="81" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="81" ht="18" customHeight="1" spans="1:7">
       <c r="A81" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B81" s="8">
-        <v>1.973</v>
+        <v>1.821</v>
       </c>
       <c r="C81" s="8">
-        <v>2.129</v>
+        <v>1.977</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="82" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="82" ht="18" customHeight="1" spans="1:7">
       <c r="A82" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="8">
-        <v>2.073</v>
+        <v>1.973</v>
       </c>
       <c r="C82" s="8">
-        <v>2.229</v>
+        <v>2.129</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-    </row>
-    <row r="83" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="83" ht="18" customHeight="1" spans="1:7">
       <c r="A83" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="8">
-        <v>2.053</v>
+        <v>2.073</v>
       </c>
       <c r="C83" s="8">
-        <v>2.209</v>
+        <v>2.229</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="84" ht="18" customHeight="1" spans="1:7">
       <c r="A84" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B84" s="8">
-        <v>2.02</v>
+        <v>2.053</v>
       </c>
       <c r="C84" s="8">
-        <v>2.176</v>
+        <v>2.209</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-    </row>
-    <row r="85" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="85" ht="18" customHeight="1" spans="1:7">
       <c r="A85" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B85" s="8">
-        <v>2.084</v>
+        <v>2.02</v>
       </c>
       <c r="C85" s="8">
-        <v>2.24</v>
+        <v>2.176</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-    </row>
-    <row r="86" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="86" ht="18" customHeight="1" spans="1:7">
       <c r="A86" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="8">
-        <v>2.04</v>
+        <v>2.084</v>
       </c>
       <c r="C86" s="8">
-        <v>2.196</v>
+        <v>2.24</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-    </row>
-    <row r="87" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="87" ht="18" customHeight="1" spans="1:7">
       <c r="A87" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B87" s="8">
-        <v>2.112</v>
+        <v>2.04</v>
       </c>
       <c r="C87" s="8">
-        <v>2.268</v>
+        <v>2.196</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-    </row>
-    <row r="88" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="88" ht="18" customHeight="1" spans="1:7">
       <c r="A88" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B88" s="8">
-        <v>2.154</v>
+        <v>2.112</v>
       </c>
       <c r="C88" s="8">
-        <v>2.31</v>
+        <v>2.268</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-    </row>
-    <row r="89" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="89" ht="18" customHeight="1" spans="1:7">
       <c r="A89" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B89" s="8">
-        <v>2.473</v>
+        <v>2.154</v>
       </c>
       <c r="C89" s="8">
-        <v>2.629</v>
+        <v>2.31</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-    </row>
-    <row r="90" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="90" ht="18" customHeight="1" spans="1:7">
       <c r="A90" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B90" s="8">
-        <v>2.344</v>
+        <v>2.473</v>
       </c>
       <c r="C90" s="8">
-        <v>2.5</v>
+        <v>2.629</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-    </row>
-    <row r="91" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="91" ht="18" customHeight="1" spans="1:7">
       <c r="A91" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B91" s="8">
-        <v>2.35</v>
+        <v>2.344</v>
       </c>
       <c r="C91" s="8">
-        <v>2.506</v>
+        <v>2.5</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-    </row>
-    <row r="92" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="92" ht="18" customHeight="1" spans="1:7">
       <c r="A92" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B92" s="8">
-        <v>2.306</v>
+        <v>2.35</v>
       </c>
       <c r="C92" s="8">
-        <v>2.462</v>
+        <v>2.506</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-    </row>
-    <row r="93" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="93" ht="18" customHeight="1" spans="1:7">
       <c r="A93" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="8">
-        <v>2.25</v>
+        <v>2.306</v>
       </c>
       <c r="C93" s="8">
-        <v>2.406</v>
+        <v>2.462</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-    </row>
-    <row r="94" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="94" ht="18" customHeight="1" spans="1:7">
       <c r="A94" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B94" s="8">
-        <v>2.154</v>
+        <v>2.25</v>
       </c>
       <c r="C94" s="8">
-        <v>2.31</v>
+        <v>2.406</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-    </row>
-    <row r="95" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="95" ht="18" customHeight="1" spans="1:7">
       <c r="A95" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B95" s="8">
-        <v>2.306</v>
+        <v>2.154</v>
       </c>
       <c r="C95" s="8">
-        <v>2.462</v>
+        <v>2.31</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-    </row>
-    <row r="96" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="96" ht="18" customHeight="1" spans="1:7">
       <c r="A96" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B96" s="8">
-        <v>2.319</v>
+        <v>2.306</v>
       </c>
       <c r="C96" s="8">
-        <v>2.475</v>
+        <v>2.462</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-    </row>
-    <row r="97" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="97" ht="18" customHeight="1" spans="1:7">
       <c r="A97" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="8">
-        <v>2.227</v>
+        <v>2.319</v>
       </c>
       <c r="C97" s="8">
-        <v>2.383</v>
+        <v>2.475</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-    </row>
-    <row r="98" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="98" ht="18" customHeight="1" spans="1:7">
       <c r="A98" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="8">
-        <v>2.166</v>
+        <v>2.227</v>
       </c>
       <c r="C98" s="8">
-        <v>2.322</v>
+        <v>2.383</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-    </row>
-    <row r="99" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="99" ht="18" customHeight="1" spans="1:7">
       <c r="A99" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="8">
-        <v>2.044</v>
+        <v>2.166</v>
       </c>
       <c r="C99" s="8">
-        <v>2.2</v>
+        <v>2.322</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-    </row>
-    <row r="100" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="100" ht="18" customHeight="1" spans="1:7">
       <c r="A100" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B100" s="8">
-        <v>2</v>
+        <v>2.044</v>
       </c>
       <c r="C100" s="8">
-        <v>2.156</v>
+        <v>2.2</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-    </row>
-    <row r="101" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="101" ht="18" customHeight="1" spans="1:7">
       <c r="A101" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="8">
-        <v>2.003</v>
+        <v>2</v>
       </c>
       <c r="C101" s="8">
-        <v>2.159</v>
+        <v>2.156</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-    </row>
-    <row r="102" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="102" ht="18" customHeight="1" spans="1:7">
       <c r="A102" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B102" s="8">
-        <v>2.002</v>
+        <v>2.003</v>
       </c>
       <c r="C102" s="8">
-        <v>2.158</v>
+        <v>2.159</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-    </row>
-    <row r="103" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="103" ht="18" customHeight="1" spans="1:7">
       <c r="A103" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="8">
-        <v>2.094</v>
+        <v>2.002</v>
       </c>
       <c r="C103" s="8">
-        <v>2.25</v>
+        <v>2.158</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-    </row>
-    <row r="104" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="104" ht="18" customHeight="1" spans="1:7">
       <c r="A104" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B104" s="8">
-        <v>2.135</v>
+        <v>2.094</v>
       </c>
       <c r="C104" s="8">
-        <v>2.291</v>
+        <v>2.25</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-    </row>
-    <row r="105" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="105" ht="18" customHeight="1" spans="1:7">
       <c r="A105" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B105" s="8">
-        <v>2.029</v>
+        <v>2.135</v>
       </c>
       <c r="C105" s="8">
-        <v>2.185</v>
+        <v>2.291</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-    </row>
-    <row r="106" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="106" ht="18" customHeight="1" spans="1:7">
       <c r="A106" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B106" s="8">
-        <v>2.093</v>
+        <v>2.029</v>
       </c>
       <c r="C106" s="8">
-        <v>2.249</v>
+        <v>2.185</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-    </row>
-    <row r="107" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="107" ht="18" customHeight="1" spans="1:7">
       <c r="A107" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B107" s="8">
-        <v>2.007</v>
+        <v>2.093</v>
       </c>
       <c r="C107" s="8">
-        <v>2.163</v>
+        <v>2.249</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-    </row>
-    <row r="108" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="108" ht="18" customHeight="1" spans="1:7">
       <c r="A108" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B108" s="8">
-        <v>1.932</v>
+        <v>2.007</v>
       </c>
       <c r="C108" s="8">
-        <v>2.088</v>
+        <v>2.163</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-    </row>
-    <row r="109" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="109" ht="18" customHeight="1" spans="1:7">
       <c r="A109" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B109" s="8">
-        <v>1.973</v>
+        <v>1.932</v>
       </c>
       <c r="C109" s="8">
-        <v>2.129</v>
+        <v>2.088</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-    </row>
-    <row r="110" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="110" ht="18" customHeight="1" spans="1:7">
       <c r="A110" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B110" s="8">
-        <v>2.036</v>
+        <v>1.973</v>
       </c>
       <c r="C110" s="8">
-        <v>2.192</v>
+        <v>2.129</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-    </row>
-    <row r="111" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="111" ht="18" customHeight="1" spans="1:7">
       <c r="A111" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B111" s="8">
-        <v>1.988</v>
+        <v>2.036</v>
       </c>
       <c r="C111" s="8">
-        <v>2.144</v>
+        <v>2.192</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-    </row>
-    <row r="112" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="112" ht="18" customHeight="1" spans="1:7">
       <c r="A112" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B112" s="8">
-        <v>2.005</v>
+        <v>1.988</v>
       </c>
       <c r="C112" s="8">
-        <v>2.161</v>
+        <v>2.144</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-    </row>
-    <row r="113" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="113" ht="18" customHeight="1" spans="1:7">
       <c r="A113" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B113" s="8">
-        <v>1.114</v>
+        <v>2.005</v>
       </c>
       <c r="C113" s="8">
-        <v>2.169</v>
+        <v>2.161</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-    </row>
-    <row r="114" ht="18" customHeight="1" spans="1:8">
-      <c r="A114" s="7" t="s">
+    </row>
+    <row r="114" ht="18" customHeight="1" spans="1:7">
+      <c r="A114" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="8">
-        <v>1.073</v>
-      </c>
-      <c r="C114" s="8">
-        <v>2.128</v>
+      <c r="B114" s="11">
+        <v>1.148</v>
+      </c>
+      <c r="C114" s="11">
+        <v>2.203</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-    </row>
-    <row r="115" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="115" ht="18" customHeight="1" spans="1:7">
       <c r="A115" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B115" s="8">
-        <v>1.082</v>
+        <v>1.114</v>
       </c>
       <c r="C115" s="8">
-        <v>2.137</v>
+        <v>2.169</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-    </row>
-    <row r="116" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="116" ht="18" customHeight="1" spans="1:7">
       <c r="A116" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B116" s="8">
-        <v>1.081</v>
+        <v>1.073</v>
       </c>
       <c r="C116" s="8">
-        <v>2.136</v>
+        <v>2.128</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-    </row>
-    <row r="117" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="117" ht="18" customHeight="1" spans="1:7">
       <c r="A117" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B117" s="8">
-        <v>1.091</v>
+        <v>1.082</v>
       </c>
       <c r="C117" s="8">
-        <v>2.146</v>
+        <v>2.137</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-    </row>
-    <row r="118" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="118" ht="18" customHeight="1" spans="1:7">
       <c r="A118" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="8">
-        <v>1.09</v>
+        <v>1.081</v>
       </c>
       <c r="C118" s="8">
-        <v>2.145</v>
+        <v>2.136</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-    </row>
-    <row r="119" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="119" ht="18" customHeight="1" spans="1:7">
       <c r="A119" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B119" s="8">
-        <v>1.072</v>
+        <v>1.091</v>
       </c>
       <c r="C119" s="8">
-        <v>2.127</v>
+        <v>2.146</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-    </row>
-    <row r="120" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="120" ht="18" customHeight="1" spans="1:7">
       <c r="A120" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B120" s="8">
-        <v>1.078</v>
+        <v>1.09</v>
       </c>
       <c r="C120" s="8">
-        <v>2.133</v>
+        <v>2.145</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-    </row>
-    <row r="121" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="121" ht="18" customHeight="1" spans="1:7">
       <c r="A121" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B121" s="8">
-        <v>1.028</v>
+        <v>1.072</v>
       </c>
       <c r="C121" s="8">
-        <v>2.083</v>
+        <v>2.127</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-    </row>
-    <row r="122" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="122" ht="18" customHeight="1" spans="1:7">
       <c r="A122" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B122" s="8">
-        <v>1.017</v>
+        <v>1.078</v>
       </c>
       <c r="C122" s="8">
-        <v>2.072</v>
+        <v>2.133</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-    </row>
-    <row r="123" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="123" ht="18" customHeight="1" spans="1:7">
       <c r="A123" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B123" s="8">
-        <v>1.025</v>
+        <v>1.028</v>
       </c>
       <c r="C123" s="8">
-        <v>2.08</v>
+        <v>2.083</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-    </row>
-    <row r="124" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="124" ht="18" customHeight="1" spans="1:7">
       <c r="A124" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B124" s="8">
-        <v>1.07</v>
+        <v>1.017</v>
       </c>
       <c r="C124" s="8">
-        <v>2.125</v>
+        <v>2.072</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-    </row>
-    <row r="125" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="125" ht="18" customHeight="1" spans="1:7">
       <c r="A125" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B125" s="8">
-        <v>1.089</v>
+        <v>1.025</v>
       </c>
       <c r="C125" s="8">
-        <v>2.144</v>
+        <v>2.08</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-    </row>
-    <row r="126" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="126" ht="18" customHeight="1" spans="1:7">
       <c r="A126" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="8">
-        <v>1.088</v>
+        <v>1.07</v>
       </c>
       <c r="C126" s="8">
-        <v>2.143</v>
+        <v>2.125</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-    </row>
-    <row r="127" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="127" ht="18" customHeight="1" spans="1:7">
       <c r="A127" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B127" s="8">
-        <v>1.077</v>
+        <v>1.089</v>
       </c>
       <c r="C127" s="8">
-        <v>2.132</v>
+        <v>2.144</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-    </row>
-    <row r="128" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="128" ht="18" customHeight="1" spans="1:7">
       <c r="A128" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B128" s="8">
-        <v>1.084</v>
+        <v>1.088</v>
       </c>
       <c r="C128" s="8">
-        <v>2.139</v>
+        <v>2.143</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-    </row>
-    <row r="129" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="129" ht="18" customHeight="1" spans="1:7">
       <c r="A129" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B129" s="8">
-        <v>1.089</v>
+        <v>1.077</v>
       </c>
       <c r="C129" s="8">
-        <v>2.144</v>
+        <v>2.132</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-    </row>
-    <row r="130" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="130" ht="18" customHeight="1" spans="1:7">
       <c r="A130" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B130" s="8">
-        <v>1.035</v>
+        <v>1.084</v>
       </c>
       <c r="C130" s="8">
-        <v>2.09</v>
+        <v>2.139</v>
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-    </row>
-    <row r="131" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="131" ht="18" customHeight="1" spans="1:7">
       <c r="A131" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B131" s="8">
-        <v>1.081</v>
+        <v>1.089</v>
       </c>
       <c r="C131" s="8">
-        <v>2.136</v>
+        <v>2.144</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-    </row>
-    <row r="132" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="132" ht="18" customHeight="1" spans="1:7">
       <c r="A132" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B132" s="8">
-        <v>1.093</v>
+        <v>1.035</v>
       </c>
       <c r="C132" s="8">
-        <v>2.148</v>
+        <v>2.09</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-    </row>
-    <row r="133" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="133" ht="18" customHeight="1" spans="1:7">
       <c r="A133" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B133" s="8">
-        <v>1.088</v>
+        <v>1.081</v>
       </c>
       <c r="C133" s="8">
-        <v>2.143</v>
+        <v>2.136</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-    </row>
-    <row r="134" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="134" ht="18" customHeight="1" spans="1:7">
       <c r="A134" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B134" s="8">
-        <v>1.127</v>
+        <v>1.093</v>
       </c>
       <c r="C134" s="8">
-        <v>2.182</v>
+        <v>2.148</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-    </row>
-    <row r="135" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="135" ht="18" customHeight="1" spans="1:7">
       <c r="A135" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B135" s="8">
-        <v>1.122</v>
+        <v>1.088</v>
       </c>
       <c r="C135" s="8">
-        <v>2.177</v>
+        <v>2.143</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-    </row>
-    <row r="136" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="136" ht="18" customHeight="1" spans="1:7">
       <c r="A136" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B136" s="8">
-        <v>1.116</v>
+        <v>1.127</v>
       </c>
       <c r="C136" s="8">
-        <v>2.171</v>
+        <v>2.182</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-    </row>
-    <row r="137" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="137" ht="18" customHeight="1" spans="1:7">
       <c r="A137" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B137" s="8">
-        <v>1.11</v>
+        <v>1.122</v>
       </c>
       <c r="C137" s="8">
-        <v>2.165</v>
+        <v>2.177</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-    </row>
-    <row r="138" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="138" ht="18" customHeight="1" spans="1:7">
       <c r="A138" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B138" s="8">
-        <v>1.086</v>
+        <v>1.116</v>
       </c>
       <c r="C138" s="8">
-        <v>2.141</v>
+        <v>2.171</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-    </row>
-    <row r="139" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="139" ht="18" customHeight="1" spans="1:7">
       <c r="A139" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B139" s="8">
-        <v>1.061</v>
+        <v>1.11</v>
       </c>
       <c r="C139" s="8">
-        <v>2.116</v>
+        <v>2.165</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-    </row>
-    <row r="140" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="140" ht="18" customHeight="1" spans="1:7">
       <c r="A140" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B140" s="8">
-        <v>1.049</v>
+        <v>1.086</v>
       </c>
       <c r="C140" s="8">
-        <v>2.104</v>
+        <v>2.141</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-    </row>
-    <row r="141" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="141" ht="18" customHeight="1" spans="1:7">
       <c r="A141" s="7" t="s">
         <v>142</v>
       </c>
@@ -3993,1191 +3876,1176 @@
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-    </row>
-    <row r="142" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="142" ht="18" customHeight="1" spans="1:7">
       <c r="A142" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B142" s="8">
-        <v>1.117</v>
+        <v>1.049</v>
       </c>
       <c r="C142" s="8">
-        <v>2.172</v>
+        <v>2.104</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-    </row>
-    <row r="143" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="143" ht="18" customHeight="1" spans="1:7">
       <c r="A143" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B143" s="8">
-        <v>1.12</v>
+        <v>1.061</v>
       </c>
       <c r="C143" s="8">
-        <v>2.175</v>
+        <v>2.116</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-    </row>
-    <row r="144" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="144" ht="18" customHeight="1" spans="1:7">
       <c r="A144" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B144" s="8">
-        <v>1.083</v>
+        <v>1.117</v>
       </c>
       <c r="C144" s="8">
-        <v>2.138</v>
+        <v>2.172</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-    </row>
-    <row r="145" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="145" ht="18" customHeight="1" spans="1:7">
       <c r="A145" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B145" s="8">
-        <v>1.095</v>
+        <v>1.12</v>
       </c>
       <c r="C145" s="8">
-        <v>2.15</v>
+        <v>2.175</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-    </row>
-    <row r="146" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="146" ht="18" customHeight="1" spans="1:7">
       <c r="A146" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B146" s="8">
-        <v>1.02</v>
+        <v>1.083</v>
       </c>
       <c r="C146" s="8">
-        <v>2.075</v>
+        <v>2.138</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-    </row>
-    <row r="147" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="147" ht="18" customHeight="1" spans="1:7">
       <c r="A147" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B147" s="8">
-        <v>1.042</v>
+        <v>1.095</v>
       </c>
       <c r="C147" s="8">
-        <v>2.097</v>
+        <v>2.15</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-    </row>
-    <row r="148" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="148" ht="18" customHeight="1" spans="1:7">
       <c r="A148" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B148" s="8">
-        <v>1.076</v>
+        <v>1.02</v>
       </c>
       <c r="C148" s="8">
-        <v>2.131</v>
+        <v>2.075</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-    </row>
-    <row r="149" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="149" ht="18" customHeight="1" spans="1:7">
       <c r="A149" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B149" s="8">
-        <v>1.075</v>
+        <v>1.042</v>
       </c>
       <c r="C149" s="8">
-        <v>2.13</v>
+        <v>2.097</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-    </row>
-    <row r="150" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="150" ht="18" customHeight="1" spans="1:7">
       <c r="A150" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B150" s="8">
-        <v>1.064</v>
+        <v>1.076</v>
       </c>
       <c r="C150" s="8">
-        <v>2.119</v>
+        <v>2.131</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-    </row>
-    <row r="151" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="151" ht="18" customHeight="1" spans="1:7">
       <c r="A151" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B151" s="8">
-        <v>1.061</v>
+        <v>1.075</v>
       </c>
       <c r="C151" s="8">
-        <v>2.116</v>
+        <v>2.13</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-    </row>
-    <row r="152" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="152" ht="18" customHeight="1" spans="1:7">
       <c r="A152" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B152" s="8">
-        <v>1.095</v>
+        <v>1.064</v>
       </c>
       <c r="C152" s="8">
-        <v>2.15</v>
+        <v>2.119</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-    </row>
-    <row r="153" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="153" ht="18" customHeight="1" spans="1:7">
       <c r="A153" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B153" s="8">
-        <v>1.058</v>
+        <v>1.061</v>
       </c>
       <c r="C153" s="8">
-        <v>2.113</v>
+        <v>2.116</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-    </row>
-    <row r="154" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="154" ht="18" customHeight="1" spans="1:7">
       <c r="A154" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B154" s="8">
-        <v>1.058</v>
+        <v>1.095</v>
       </c>
       <c r="C154" s="8">
-        <v>2.113</v>
+        <v>2.15</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-    </row>
-    <row r="155" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="155" ht="18" customHeight="1" spans="1:7">
       <c r="A155" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B155" s="8">
-        <v>1.141</v>
+        <v>1.058</v>
       </c>
       <c r="C155" s="8">
-        <v>2.196</v>
+        <v>2.113</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-    </row>
-    <row r="156" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="156" ht="18" customHeight="1" spans="1:7">
       <c r="A156" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B156" s="8">
-        <v>1.104</v>
+        <v>1.058</v>
       </c>
       <c r="C156" s="8">
-        <v>2.159</v>
+        <v>2.113</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-    </row>
-    <row r="157" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="157" ht="18" customHeight="1" spans="1:7">
       <c r="A157" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B157" s="8">
-        <v>1.135</v>
+        <v>1.141</v>
       </c>
       <c r="C157" s="8">
-        <v>2.19</v>
+        <v>2.196</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-    </row>
-    <row r="158" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="158" ht="18" customHeight="1" spans="1:7">
       <c r="A158" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B158" s="8">
-        <v>1.119</v>
+        <v>1.104</v>
       </c>
       <c r="C158" s="8">
-        <v>2.174</v>
+        <v>2.159</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-    </row>
-    <row r="159" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="159" ht="18" customHeight="1" spans="1:7">
       <c r="A159" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B159" s="8">
-        <v>1.143</v>
+        <v>1.135</v>
       </c>
       <c r="C159" s="8">
-        <v>2.198</v>
+        <v>2.19</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-    </row>
-    <row r="160" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="160" ht="18" customHeight="1" spans="1:7">
       <c r="A160" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B160" s="8">
-        <v>1.092</v>
+        <v>1.119</v>
       </c>
       <c r="C160" s="8">
-        <v>2.147</v>
+        <v>2.174</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-    </row>
-    <row r="161" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="161" ht="18" customHeight="1" spans="1:7">
       <c r="A161" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B161" s="8">
-        <v>1.139</v>
+        <v>1.143</v>
       </c>
       <c r="C161" s="8">
-        <v>2.194</v>
+        <v>2.198</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-    </row>
-    <row r="162" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="162" ht="18" customHeight="1" spans="1:7">
       <c r="A162" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B162" s="8">
-        <v>1.209</v>
+        <v>1.092</v>
       </c>
       <c r="C162" s="8">
-        <v>2.264</v>
+        <v>2.147</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-    </row>
-    <row r="163" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="163" ht="18" customHeight="1" spans="1:7">
       <c r="A163" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B163" s="8">
-        <v>1.377</v>
+        <v>1.139</v>
       </c>
       <c r="C163" s="8">
-        <v>2.432</v>
+        <v>2.194</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-    </row>
-    <row r="164" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="164" ht="18" customHeight="1" spans="1:7">
       <c r="A164" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B164" s="8">
-        <v>1.377</v>
+        <v>1.209</v>
       </c>
       <c r="C164" s="8">
-        <v>2.432</v>
+        <v>2.264</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-    </row>
-    <row r="165" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="165" ht="18" customHeight="1" spans="1:7">
       <c r="A165" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B165" s="8">
-        <v>1.151</v>
+        <v>1.377</v>
       </c>
       <c r="C165" s="8">
-        <v>2.469</v>
+        <v>2.432</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-    </row>
-    <row r="166" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="166" ht="18" customHeight="1" spans="1:7">
       <c r="A166" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B166" s="8">
-        <v>1.13</v>
+        <v>1.377</v>
       </c>
       <c r="C166" s="8">
-        <v>2.448</v>
+        <v>2.432</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-    </row>
-    <row r="167" ht="18" customHeight="1" spans="1:8">
-      <c r="A167" s="7" t="s">
+    </row>
+    <row r="167" ht="18" customHeight="1" spans="1:7">
+      <c r="A167" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B167" s="8">
-        <v>1.202</v>
-      </c>
-      <c r="C167" s="8">
-        <v>2.52</v>
+      <c r="B167" s="11">
+        <v>1.153</v>
+      </c>
+      <c r="C167" s="11">
+        <v>2.471</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-    </row>
-    <row r="168" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="168" ht="18" customHeight="1" spans="1:7">
       <c r="A168" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B168" s="8">
-        <v>1.331</v>
+        <v>1.151</v>
       </c>
       <c r="C168" s="8">
-        <v>2.649</v>
+        <v>2.469</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-    </row>
-    <row r="169" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="169" ht="18" customHeight="1" spans="1:7">
       <c r="A169" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B169" s="8">
-        <v>1.378</v>
+        <v>1.13</v>
       </c>
       <c r="C169" s="8">
-        <v>2.696</v>
+        <v>2.448</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-    </row>
-    <row r="170" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="170" ht="18" customHeight="1" spans="1:7">
       <c r="A170" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B170" s="8">
-        <v>1.409</v>
+        <v>1.202</v>
       </c>
       <c r="C170" s="8">
-        <v>2.727</v>
+        <v>2.52</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-    </row>
-    <row r="171" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="171" ht="18" customHeight="1" spans="1:7">
       <c r="A171" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B171" s="8">
-        <v>1.357</v>
+        <v>1.331</v>
       </c>
       <c r="C171" s="8">
-        <v>2.675</v>
+        <v>2.649</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
-    </row>
-    <row r="172" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="172" ht="18" customHeight="1" spans="1:7">
       <c r="A172" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B172" s="8">
-        <v>1.375</v>
+        <v>1.378</v>
       </c>
       <c r="C172" s="8">
-        <v>2.693</v>
+        <v>2.696</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
-    </row>
-    <row r="173" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="173" ht="18" customHeight="1" spans="1:7">
       <c r="A173" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B173" s="8">
-        <v>1.375</v>
+        <v>1.409</v>
       </c>
       <c r="C173" s="8">
-        <v>2.693</v>
+        <v>2.727</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
-      <c r="H173" s="9"/>
-    </row>
-    <row r="174" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="174" ht="18" customHeight="1" spans="1:7">
       <c r="A174" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B174" s="8">
-        <v>1.376</v>
+        <v>1.357</v>
       </c>
       <c r="C174" s="8">
-        <v>2.694</v>
+        <v>2.675</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-    </row>
-    <row r="175" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="175" ht="18" customHeight="1" spans="1:7">
       <c r="A175" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B175" s="8">
-        <v>1.444</v>
+        <v>1.375</v>
       </c>
       <c r="C175" s="8">
-        <v>2.762</v>
+        <v>2.693</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
-    </row>
-    <row r="176" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="176" ht="18" customHeight="1" spans="1:7">
       <c r="A176" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B176" s="8">
-        <v>1.559</v>
+        <v>1.375</v>
       </c>
       <c r="C176" s="8">
-        <v>2.877</v>
+        <v>2.693</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-    </row>
-    <row r="177" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="177" ht="18" customHeight="1" spans="1:7">
       <c r="A177" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B177" s="8">
-        <v>1.697</v>
+        <v>1.376</v>
       </c>
       <c r="C177" s="8">
-        <v>3.015</v>
+        <v>2.694</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-    </row>
-    <row r="178" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="178" ht="18" customHeight="1" spans="1:7">
       <c r="A178" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B178" s="8">
-        <v>1.713</v>
+        <v>1.444</v>
       </c>
       <c r="C178" s="8">
-        <v>3.031</v>
+        <v>2.762</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-    </row>
-    <row r="179" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="179" ht="18" customHeight="1" spans="1:7">
       <c r="A179" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B179" s="8">
-        <v>1.603</v>
+        <v>1.559</v>
       </c>
       <c r="C179" s="8">
-        <v>2.921</v>
+        <v>2.877</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
-    </row>
-    <row r="180" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="180" ht="18" customHeight="1" spans="1:7">
       <c r="A180" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B180" s="8">
-        <v>1.645</v>
+        <v>1.697</v>
       </c>
       <c r="C180" s="8">
-        <v>2.963</v>
+        <v>3.015</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-    </row>
-    <row r="181" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="181" ht="18" customHeight="1" spans="1:7">
       <c r="A181" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B181" s="8">
-        <v>1.565</v>
+        <v>1.713</v>
       </c>
       <c r="C181" s="8">
-        <v>2.883</v>
+        <v>3.031</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
-      <c r="H181" s="9"/>
-    </row>
-    <row r="182" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="182" ht="18" customHeight="1" spans="1:7">
       <c r="A182" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B182" s="8">
-        <v>1.536</v>
+        <v>1.603</v>
       </c>
       <c r="C182" s="8">
-        <v>2.854</v>
+        <v>2.921</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-    </row>
-    <row r="183" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="183" ht="18" customHeight="1" spans="1:7">
       <c r="A183" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B183" s="8">
-        <v>1.546</v>
+        <v>1.645</v>
       </c>
       <c r="C183" s="8">
-        <v>2.864</v>
+        <v>2.963</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
-      <c r="H183" s="9"/>
-    </row>
-    <row r="184" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="184" ht="18" customHeight="1" spans="1:7">
       <c r="A184" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B184" s="8">
-        <v>1.567</v>
+        <v>1.565</v>
       </c>
       <c r="C184" s="8">
-        <v>2.885</v>
+        <v>2.883</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
-      <c r="H184" s="9"/>
-    </row>
-    <row r="185" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="185" ht="18" customHeight="1" spans="1:7">
       <c r="A185" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B185" s="8">
-        <v>1.668</v>
+        <v>1.536</v>
       </c>
       <c r="C185" s="8">
-        <v>2.986</v>
+        <v>2.854</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
-      <c r="H185" s="9"/>
-    </row>
-    <row r="186" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="186" ht="18" customHeight="1" spans="1:7">
       <c r="A186" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B186" s="8">
-        <v>1.695</v>
+        <v>1.546</v>
       </c>
       <c r="C186" s="8">
-        <v>3.013</v>
+        <v>2.864</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
-      <c r="H186" s="9"/>
-    </row>
-    <row r="187" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="187" ht="18" customHeight="1" spans="1:7">
       <c r="A187" s="7" t="s">
         <v>188</v>
       </c>
       <c r="B187" s="8">
-        <v>1.708</v>
+        <v>1.567</v>
       </c>
       <c r="C187" s="8">
-        <v>3.026</v>
+        <v>2.885</v>
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
-      <c r="H187" s="9"/>
-    </row>
-    <row r="188" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="188" ht="18" customHeight="1" spans="1:7">
       <c r="A188" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B188" s="8">
-        <v>1.761</v>
+        <v>1.668</v>
       </c>
       <c r="C188" s="8">
-        <v>3.079</v>
+        <v>2.986</v>
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
-      <c r="H188" s="9"/>
-    </row>
-    <row r="189" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="189" ht="18" customHeight="1" spans="1:7">
       <c r="A189" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B189" s="8">
-        <v>1.723</v>
+        <v>1.695</v>
       </c>
       <c r="C189" s="8">
-        <v>3.041</v>
+        <v>3.013</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
-      <c r="H189" s="9"/>
-    </row>
-    <row r="190" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="190" ht="18" customHeight="1" spans="1:7">
       <c r="A190" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B190" s="8">
-        <v>1.651</v>
+        <v>1.708</v>
       </c>
       <c r="C190" s="8">
-        <v>2.969</v>
+        <v>3.026</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
-      <c r="H190" s="9"/>
-    </row>
-    <row r="191" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="191" ht="18" customHeight="1" spans="1:7">
       <c r="A191" s="7" t="s">
         <v>192</v>
       </c>
       <c r="B191" s="8">
-        <v>1.552</v>
+        <v>1.761</v>
       </c>
       <c r="C191" s="8">
-        <v>2.87</v>
+        <v>3.079</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
-      <c r="H191" s="9"/>
-    </row>
-    <row r="192" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="192" ht="18" customHeight="1" spans="1:7">
       <c r="A192" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B192" s="8">
-        <v>1.549</v>
+        <v>1.723</v>
       </c>
       <c r="C192" s="8">
-        <v>2.867</v>
+        <v>3.041</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
-      <c r="H192" s="9"/>
-    </row>
-    <row r="193" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="193" ht="18" customHeight="1" spans="1:7">
       <c r="A193" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B193" s="8">
-        <v>1.55</v>
+        <v>1.651</v>
       </c>
       <c r="C193" s="8">
-        <v>2.868</v>
+        <v>2.969</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
-      <c r="H193" s="9"/>
-    </row>
-    <row r="194" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="194" ht="18" customHeight="1" spans="1:7">
       <c r="A194" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B194" s="8">
-        <v>1.517</v>
+        <v>1.552</v>
       </c>
       <c r="C194" s="8">
-        <v>2.835</v>
+        <v>2.87</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
-      <c r="H194" s="9"/>
-    </row>
-    <row r="195" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="195" ht="18" customHeight="1" spans="1:7">
       <c r="A195" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B195" s="8">
-        <v>1.53</v>
+        <v>1.549</v>
       </c>
       <c r="C195" s="8">
-        <v>2.848</v>
+        <v>2.867</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
-      <c r="H195" s="9"/>
-    </row>
-    <row r="196" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="196" ht="18" customHeight="1" spans="1:7">
       <c r="A196" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B196" s="8">
-        <v>1.542</v>
+        <v>1.55</v>
       </c>
       <c r="C196" s="8">
-        <v>2.86</v>
+        <v>2.868</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
-      <c r="H196" s="9"/>
-    </row>
-    <row r="197" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="197" ht="18" customHeight="1" spans="1:7">
       <c r="A197" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B197" s="8">
-        <v>1.452</v>
+        <v>1.517</v>
       </c>
       <c r="C197" s="8">
-        <v>2.77</v>
+        <v>2.835</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
-      <c r="H197" s="9"/>
-    </row>
-    <row r="198" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="198" ht="18" customHeight="1" spans="1:7">
       <c r="A198" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B198" s="8">
-        <v>1.419</v>
+        <v>1.53</v>
       </c>
       <c r="C198" s="8">
-        <v>2.737</v>
+        <v>2.848</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
-      <c r="H198" s="9"/>
-    </row>
-    <row r="199" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="199" ht="18" customHeight="1" spans="1:7">
       <c r="A199" s="7" t="s">
         <v>200</v>
       </c>
       <c r="B199" s="8">
-        <v>1.399</v>
+        <v>1.542</v>
       </c>
       <c r="C199" s="8">
-        <v>2.717</v>
+        <v>2.86</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
-      <c r="H199" s="9"/>
-    </row>
-    <row r="200" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="200" ht="18" customHeight="1" spans="1:7">
       <c r="A200" s="7" t="s">
         <v>201</v>
       </c>
       <c r="B200" s="8">
-        <v>1.397</v>
+        <v>1.452</v>
       </c>
       <c r="C200" s="8">
-        <v>2.715</v>
+        <v>2.77</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
-      <c r="H200" s="9"/>
-    </row>
-    <row r="201" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="201" ht="18" customHeight="1" spans="1:7">
       <c r="A201" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B201" s="8">
-        <v>1.406</v>
+        <v>1.419</v>
       </c>
       <c r="C201" s="8">
-        <v>2.724</v>
+        <v>2.737</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
-      <c r="H201" s="9"/>
-    </row>
-    <row r="202" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="202" ht="18" customHeight="1" spans="1:7">
       <c r="A202" s="7" t="s">
         <v>203</v>
       </c>
       <c r="B202" s="8">
-        <v>1.428</v>
+        <v>1.399</v>
       </c>
       <c r="C202" s="8">
-        <v>2.746</v>
+        <v>2.717</v>
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
-      <c r="H202" s="9"/>
-    </row>
-    <row r="203" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="203" ht="18" customHeight="1" spans="1:7">
       <c r="A203" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B203" s="8">
-        <v>1.458</v>
+        <v>1.397</v>
       </c>
       <c r="C203" s="8">
-        <v>2.776</v>
+        <v>2.715</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
-      <c r="H203" s="9"/>
-    </row>
-    <row r="204" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="204" ht="18" customHeight="1" spans="1:7">
       <c r="A204" s="7" t="s">
         <v>205</v>
       </c>
       <c r="B204" s="8">
-        <v>1.485</v>
+        <v>1.406</v>
       </c>
       <c r="C204" s="8">
-        <v>2.803</v>
+        <v>2.724</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
-      <c r="H204" s="9"/>
-    </row>
-    <row r="205" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="205" ht="18" customHeight="1" spans="1:7">
       <c r="A205" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B205" s="8">
-        <v>1.662</v>
+        <v>1.428</v>
       </c>
       <c r="C205" s="8">
-        <v>2.98</v>
+        <v>2.746</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
-      <c r="H205" s="9"/>
-    </row>
-    <row r="206" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="206" ht="18" customHeight="1" spans="1:7">
       <c r="A206" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B206" s="8">
-        <v>1.77</v>
+        <v>1.458</v>
       </c>
       <c r="C206" s="8">
-        <v>3.088</v>
+        <v>2.776</v>
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
-      <c r="H206" s="9"/>
-    </row>
-    <row r="207" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="207" ht="18" customHeight="1" spans="1:7">
       <c r="A207" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B207" s="8">
-        <v>1.74</v>
+        <v>1.485</v>
       </c>
       <c r="C207" s="8">
-        <v>3.058</v>
+        <v>2.803</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
-      <c r="H207" s="9"/>
-    </row>
-    <row r="208" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="208" ht="18" customHeight="1" spans="1:7">
       <c r="A208" s="7" t="s">
         <v>209</v>
       </c>
       <c r="B208" s="8">
-        <v>1.749</v>
+        <v>1.662</v>
       </c>
       <c r="C208" s="8">
-        <v>3.067</v>
+        <v>2.98</v>
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
-      <c r="H208" s="9"/>
-    </row>
-    <row r="209" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="209" ht="18" customHeight="1" spans="1:7">
       <c r="A209" s="7" t="s">
         <v>210</v>
       </c>
       <c r="B209" s="8">
-        <v>1.849</v>
+        <v>1.77</v>
       </c>
       <c r="C209" s="8">
-        <v>3.167</v>
+        <v>3.088</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
       <c r="G209" s="9"/>
-      <c r="H209" s="9"/>
-    </row>
-    <row r="210" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="210" ht="18" customHeight="1" spans="1:7">
       <c r="A210" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B210" s="8">
-        <v>1.797</v>
+        <v>1.74</v>
       </c>
       <c r="C210" s="8">
-        <v>3.115</v>
+        <v>3.058</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
-      <c r="H210" s="9"/>
-    </row>
-    <row r="211" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="211" ht="18" customHeight="1" spans="1:7">
       <c r="A211" s="7" t="s">
         <v>212</v>
       </c>
       <c r="B211" s="8">
-        <v>1.823</v>
+        <v>1.749</v>
       </c>
       <c r="C211" s="8">
-        <v>3.141</v>
+        <v>3.067</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
-      <c r="H211" s="9"/>
-    </row>
-    <row r="212" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="212" ht="18" customHeight="1" spans="1:7">
       <c r="A212" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B212" s="8">
-        <v>1.796</v>
+        <v>1.849</v>
       </c>
       <c r="C212" s="8">
-        <v>3.114</v>
+        <v>3.167</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
-      <c r="H212" s="9"/>
-    </row>
-    <row r="213" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="213" ht="18" customHeight="1" spans="1:7">
       <c r="A213" s="7" t="s">
         <v>214</v>
       </c>
       <c r="B213" s="8">
-        <v>1.723</v>
+        <v>1.797</v>
       </c>
       <c r="C213" s="8">
-        <v>3.041</v>
+        <v>3.115</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
       <c r="G213" s="9"/>
-      <c r="H213" s="9"/>
-    </row>
-    <row r="214" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="214" ht="18" customHeight="1" spans="1:7">
       <c r="A214" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B214" s="8">
-        <v>1.057</v>
+        <v>1.823</v>
       </c>
       <c r="C214" s="8">
-        <v>3.03</v>
+        <v>3.141</v>
       </c>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
-      <c r="H214" s="9"/>
-    </row>
-    <row r="215" ht="18" customHeight="1" spans="1:8">
+    </row>
+    <row r="215" ht="18" customHeight="1" spans="1:7">
       <c r="A215" s="7" t="s">
         <v>216</v>
       </c>
       <c r="B215" s="8">
-        <v>1.049</v>
+        <v>1.796</v>
       </c>
       <c r="C215" s="8">
-        <v>3.022</v>
+        <v>3.114</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
-      <c r="H215" s="9"/>
+    </row>
+    <row r="216" ht="18" customHeight="1" spans="1:7">
+      <c r="A216" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" s="8">
+        <v>1.723</v>
+      </c>
+      <c r="C216" s="8">
+        <v>3.041</v>
+      </c>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+    </row>
+    <row r="217" ht="18" customHeight="1" spans="1:7">
+      <c r="A217" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="C217" s="11">
+        <v>3.023</v>
+      </c>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+    </row>
+    <row r="218" ht="18" customHeight="1" spans="1:7">
+      <c r="A218" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" s="8">
+        <v>1.057</v>
+      </c>
+      <c r="C218" s="8">
+        <v>3.03</v>
+      </c>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+    </row>
+    <row r="219" ht="18" customHeight="1" spans="1:7">
+      <c r="A219" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" s="8">
+        <v>1.049</v>
+      </c>
+      <c r="C219" s="8">
+        <v>3.022</v>
+      </c>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
